--- a/Income.xlsx
+++ b/Income.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -50,31 +50,118 @@
     <t>Total Sales</t>
   </si>
   <si>
-    <t>Payment Type</t>
-  </si>
-  <si>
-    <t>Non sales</t>
-  </si>
-  <si>
-    <t>Bacs/chaps</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity </t>
-  </si>
-  <si>
     <t>declined</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t xml:space="preserve"> presented</t>
-  </si>
-  <si>
     <t>won</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Steven Panter</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>presented</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Catalyst</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Postage Machine</t>
+  </si>
+  <si>
+    <t>Postage</t>
+  </si>
+  <si>
+    <t>Janice Bailey</t>
+  </si>
+  <si>
+    <t>DigiQuip</t>
+  </si>
+  <si>
+    <t>Vine</t>
+  </si>
+  <si>
+    <t>Wages</t>
+  </si>
+  <si>
+    <t>VAT (PAYE)</t>
+  </si>
+  <si>
+    <t>HMRC(Corp Tax)</t>
+  </si>
+  <si>
+    <t>Which</t>
+  </si>
+  <si>
+    <t>Transfer to HSBC</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Talk Talk</t>
+  </si>
+  <si>
+    <t>Card Machine</t>
+  </si>
+  <si>
+    <t>Alarm</t>
   </si>
 </sst>
 </file>
@@ -130,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,26 +236,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,8 +254,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection sqref="A1:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,141 +609,550 @@
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>714466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>30000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>714466</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>714466</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5000</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>737550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>35000</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>146832</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>65000</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>218895</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>40000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>218895</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>412290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>5000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>740150</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>35000</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>141962</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>65000</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>163416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="C4" s="13">
+      <c r="G12">
+        <v>30000</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>239344</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5000</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>239344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10000</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>307599</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>7000</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>688981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="G16">
+        <v>100000</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>729833</v>
+      </c>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>65000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>729833</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>5000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>729833</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>5000</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>729833</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="13">
-        <v>3</v>
-      </c>
-      <c r="E5" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="13">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3</v>
-      </c>
-      <c r="E6" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="13">
-        <v>2</v>
-      </c>
-      <c r="C7" s="13">
-        <v>4</v>
-      </c>
-      <c r="D7" s="13">
-        <v>3</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13">
-        <v>2</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>7</v>
-      </c>
-      <c r="E8" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13">
-        <v>3</v>
-      </c>
-      <c r="E9" s="13">
-        <v>5</v>
+      <c r="G20">
+        <v>5000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>729833</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>5000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -887,27 +1366,27 @@
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="9">
-        <f>SUM(B4:B12)</f>
+        <f t="shared" ref="B14:G14" si="0">SUM(B4:B12)</f>
         <v>0</v>
       </c>
       <c r="C14" s="9">
-        <f>SUM(C4:C12)</f>
+        <f t="shared" si="0"/>
         <v>346.03000000000003</v>
       </c>
       <c r="D14" s="9">
-        <f>SUM(D4:D12)</f>
+        <f t="shared" si="0"/>
         <v>20042.89</v>
       </c>
       <c r="E14" s="9">
-        <f>SUM(E4:E12)</f>
+        <f t="shared" si="0"/>
         <v>1992.8</v>
       </c>
       <c r="F14" s="9">
-        <f>SUM(F4:F12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="9">
-        <f>SUM(G4:G12)</f>
+        <f t="shared" si="0"/>
         <v>22383.72</v>
       </c>
     </row>

--- a/Income.xlsx
+++ b/Income.xlsx
@@ -59,9 +59,6 @@
     <t>pending</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>Account</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Alarm</t>
+  </si>
+  <si>
+    <t>paid</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H21"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,29 +607,30 @@
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -640,16 +641,16 @@
         <v>714466</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -658,7 +659,7 @@
         <v>30000</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,16 +667,16 @@
         <v>714466</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -684,7 +685,7 @@
         <v>10000</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,16 +693,16 @@
         <v>714466</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -718,16 +719,16 @@
         <v>737550</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -744,16 +745,16 @@
         <v>146832</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -762,7 +763,7 @@
         <v>65000</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -770,16 +771,16 @@
         <v>218895</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -796,16 +797,16 @@
         <v>218895</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -814,7 +815,7 @@
         <v>10000</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -822,16 +823,16 @@
         <v>412290</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -848,16 +849,16 @@
         <v>740150</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -874,16 +875,16 @@
         <v>141962</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -892,7 +893,7 @@
         <v>65000</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,16 +901,16 @@
         <v>163416</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -918,7 +919,7 @@
         <v>30000</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -926,16 +927,16 @@
         <v>239344</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -952,16 +953,16 @@
         <v>239344</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -970,7 +971,7 @@
         <v>10000</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -978,16 +979,16 @@
         <v>307599</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -996,7 +997,7 @@
         <v>7000</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1004,16 +1005,16 @@
         <v>688981</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" t="s">
         <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" t="s">
-        <v>22</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -1022,7 +1023,7 @@
         <v>100000</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,16 +1031,16 @@
         <v>729833</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -1056,16 +1057,16 @@
         <v>729833</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
-        <v>43</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -1074,7 +1075,7 @@
         <v>5000</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1082,16 +1083,16 @@
         <v>729833</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>5</v>
@@ -1100,7 +1101,7 @@
         <v>5000</v>
       </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,16 +1109,16 @@
         <v>729833</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -1134,16 +1135,16 @@
         <v>729833</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21">
         <v>12</v>
@@ -1152,7 +1153,7 @@
         <v>5000</v>
       </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Income.xlsx
+++ b/Income.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>paid</t>
+  </si>
+  <si>
+    <t>Dave Allsop</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +650,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -673,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -699,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
